--- a/src/main/resources/examples/户用生物质炉具.xlsx
+++ b/src/main/resources/examples/户用生物质炉具.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_5AA83C3020F385899EC1A0879A0C19ABE6AE940D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{660B9497-4003-45DD-BDA6-C9415AB71334}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="户用生物质炉具" sheetId="1" r:id="rId1"/>
@@ -16,46 +17,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>SCC编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农作物种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区县名称</t>
-  </si>
-  <si>
-    <t>区县ID</t>
-  </si>
-  <si>
-    <t>谷草比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户用燃烧比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCC编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农作物产量/吨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农作物种类</t>
+  </si>
+  <si>
+    <t>区县代码</t>
+  </si>
+  <si>
+    <t>PM10排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2 排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3排放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1117170136</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农作物产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉灶种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草谷比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户用燃烧比率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,16 +125,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -115,24 +158,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -142,6 +178,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -190,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,9 +262,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,6 +314,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,56 +506,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.41796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.41796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.62890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.41796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="6"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="2">
+        <v>650109</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>323252</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -492,12 +642,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -505,12 +655,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/examples/户用生物质炉具.xlsx
+++ b/src/main/resources/examples/户用生物质炉具.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5AA83C3020F385899EC1A0879A0C19ABE6AE940D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{660B9497-4003-45DD-BDA6-C9415AB71334}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_5AA83C3020F385899EC1A0879A0C19ABE6AE940D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93F4DF50-EB5D-4176-8A14-5A06691884BE}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/examples/户用生物质炉具.xlsx
+++ b/src/main/resources/examples/户用生物质炉具.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_5AA83C3020F385899EC1A0879A0C19ABE6AE940D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{93F4DF50-EB5D-4176-8A14-5A06691884BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A76CD396-3788-4A72-BA15-3CF69C254B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="2040" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="户用生物质炉具" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>SCC编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,9 +67,6 @@
   <si>
     <t>BC排放量</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1117170136</t>
   </si>
   <si>
     <t>无</t>
@@ -509,26 +506,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.41796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.41796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.62890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.41796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.7890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83984375" style="2"/>
+    <col min="1" max="1" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,16 +539,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -581,24 +578,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1802001000</v>
       </c>
       <c r="B2" s="2">
         <v>2015</v>
       </c>
       <c r="C2" s="2">
-        <v>650109</v>
+        <v>210101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
         <v>323252</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2">
         <v>0.9</v>
@@ -647,7 +644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -660,7 +657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
